--- a/SALT/kai_diff_test.xlsx
+++ b/SALT/kai_diff_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D239EC0-7C5B-8948-A54C-FF61D526DF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218DEB89-1972-074E-835B-405E407A793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="7820" windowWidth="27640" windowHeight="16940" xr2:uid="{51DBF7A5-357D-8948-9537-093AB521A1BA}"/>
   </bookViews>
